--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3302.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3302.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9405604924066978</v>
+        <v>0.3076540231704712</v>
       </c>
       <c r="B1">
-        <v>1.655661892831507</v>
+        <v>0.2311508804559708</v>
       </c>
       <c r="C1">
-        <v>2.338558544521882</v>
+        <v>0.3323621153831482</v>
       </c>
       <c r="D1">
-        <v>2.760147850332892</v>
+        <v>3.724145174026489</v>
       </c>
       <c r="E1">
-        <v>3.38002250863228</v>
+        <v>1.613147020339966</v>
       </c>
     </row>
   </sheetData>
